--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adana\IdeaProjects\CasumoTask\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullatif.Sofuoglu\IdeaProjects\CasumoTask\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A7FF5-3ABB-46E6-B082-205DFE754D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9052FF3B-CAFA-4932-A97A-20CCB59CDC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="465" windowWidth="16965" windowHeight="19995" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="4188" yWindow="4188" windowWidth="30960" windowHeight="12072" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Data</t>
   </si>
@@ -39,25 +39,22 @@
     <t>etaeeigaehr</t>
   </si>
   <si>
-    <t>trtraariawig</t>
-  </si>
-  <si>
-    <t>erai retati qritreit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i e t r i d a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     i</t>
-  </si>
-  <si>
-    <t>E TR A ETE O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a E t U a O </t>
-  </si>
-  <si>
-    <t>itet ?**-dfda£ + $|| e ps</t>
+    <t>eEeOUuoaRHRGSa</t>
+  </si>
+  <si>
+    <t>rtrtrydmms</t>
+  </si>
+  <si>
+    <t>eouaeiuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e  gtr  w q  ii z </t>
+  </si>
+  <si>
+    <t>1w1f1eg53qe4o</t>
+  </si>
+  <si>
+    <t>iers-ta*_ta!d</t>
   </si>
 </sst>
 </file>
@@ -133,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,58 +429,56 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.875" customWidth="1"/>
+    <col min="1" max="1" width="60.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
